--- a/02_concept/afeefa_usecases_core.xlsx
+++ b/02_concept/afeefa_usecases_core.xlsx
@@ -5,12 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +34,7 @@
     <t>User von den "echten" Orgas treten nach außen als Orga auf</t>
   </si>
   <si>
-    <t>UC-Nummer</t>
+    <t>#</t>
   </si>
   <si>
     <t>UseCase</t>
@@ -153,7 +158,7 @@
     <t>2.4.2</t>
   </si>
   <si>
-    <t>Orga läd neuen User ein</t>
+    <t>Orga lädt neuen User ein</t>
   </si>
   <si>
     <t>Einladung per mail</t>
@@ -162,7 +167,7 @@
     <t>2.4.3</t>
   </si>
   <si>
-    <t>Orga läd bestehenden User ein</t>
+    <t>Orga lädt bestehenden User ein</t>
   </si>
   <si>
     <t>2.5.1</t>
@@ -257,7 +262,7 @@
     <numFmt numFmtId="166" formatCode="DD/\ MMM"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,6 +293,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,12 +343,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,6 +369,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,6 +405,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,411 +473,422 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.94387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0"/>
+      <c r="C1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="0"/>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="0"/>
+      <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="0"/>
+      <c r="C5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="47.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
+    <row r="16" s="8" customFormat="true" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
-      <c r="D18" s="0"/>
+      <c r="A18" s="4"/>
+      <c r="C18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="D22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="s">
+    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B26" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="s">
+      <c r="C27" s="0"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="s">
+    <row r="29" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7"/>
-      <c r="D30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="8" t="s">
+      <c r="A30" s="11"/>
+      <c r="C30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
+    <row r="32" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="D32" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="0" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7"/>
-      <c r="D33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="s">
+      <c r="A33" s="11"/>
+      <c r="C33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="49.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="s">
+      <c r="D34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>12</v>
       </c>
     </row>
